--- a/Status Report Template.xlsx
+++ b/Status Report Template.xlsx
@@ -1,32 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Courses\4175 Software engineering\4175Lecture SlidesAndHandout\Module 11 Agile practice\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\CSUATM\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB5FC0FC-9BAD-49D1-90F1-4E009E4EBDCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2442" yWindow="-120" windowWidth="31038" windowHeight="20298"/>
+    <workbookView xWindow="21480" yWindow="4080" windowWidth="23925" windowHeight="14445" tabRatio="644" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Status Report Page 1" sheetId="1" r:id="rId1"/>
-    <sheet name="Member 1 Timesheet" sheetId="3" r:id="rId2"/>
-    <sheet name="Member 2 Timesheet" sheetId="7" r:id="rId3"/>
-    <sheet name="Member 3 Timesheet" sheetId="8" r:id="rId4"/>
-    <sheet name="Member 4 Timesheet" sheetId="9" r:id="rId5"/>
+    <sheet name="Ankush Timesheet" sheetId="3" r:id="rId2"/>
+    <sheet name="Brandon Timesheet" sheetId="7" r:id="rId3"/>
+    <sheet name="Justin Timesheet" sheetId="8" r:id="rId4"/>
+    <sheet name="Roshin Timesheet" sheetId="9" r:id="rId5"/>
+    <sheet name="Suhev Timesheet" sheetId="10" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Status Report Page 1'!$B$1:$J$38</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="57">
   <si>
     <t>Project Name:</t>
   </si>
@@ -163,15 +176,7 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>YOUR NAME</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>Member:</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>YOUR PROJECT NAME</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -189,11 +194,47 @@
   <si>
     <t>CPSC4175 Status Report - Member Timesheet</t>
   </si>
+  <si>
+    <t>CSU ATM</t>
+  </si>
+  <si>
+    <t>Ankush, Brandon, Justin, Roshin, Suhev</t>
+  </si>
+  <si>
+    <t>set up the project plan. Delegate work for all members</t>
+  </si>
+  <si>
+    <t>As a user, I can withdraw my money</t>
+  </si>
+  <si>
+    <t>As a user, I can check my bank balance</t>
+  </si>
+  <si>
+    <t>As a user, I can transfer money to any other accound</t>
+  </si>
+  <si>
+    <t>Ankush</t>
+  </si>
+  <si>
+    <t>Brandon</t>
+  </si>
+  <si>
+    <t>Justin</t>
+  </si>
+  <si>
+    <t>Roshin</t>
+  </si>
+  <si>
+    <t>started Django project, went through a quick tutorial</t>
+  </si>
+  <si>
+    <t>Used sqlite to build a database</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -415,7 +456,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -489,6 +530,21 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -504,29 +560,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -540,22 +600,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -963,43 +1007,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:O27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:I9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.38671875" customWidth="1"/>
-    <col min="2" max="2" width="4.44140625" customWidth="1"/>
-    <col min="3" max="3" width="13.83203125" customWidth="1"/>
-    <col min="4" max="4" width="53.44140625" customWidth="1"/>
-    <col min="5" max="5" width="9.83203125" customWidth="1"/>
-    <col min="6" max="6" width="9.38671875" customWidth="1"/>
+    <col min="1" max="1" width="2.42578125" customWidth="1"/>
+    <col min="2" max="2" width="4.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="53.42578125" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" customWidth="1"/>
     <col min="7" max="7" width="9" customWidth="1"/>
-    <col min="8" max="8" width="15.1640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.44140625" customWidth="1"/>
-    <col min="10" max="11" width="8.83203125" customWidth="1"/>
-    <col min="12" max="12" width="10.44140625" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.42578125" customWidth="1"/>
+    <col min="10" max="11" width="8.85546875" customWidth="1"/>
+    <col min="12" max="12" width="10.42578125" customWidth="1"/>
+    <col min="13" max="13" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="15" x14ac:dyDescent="0.5">
-      <c r="B1" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
+    <row r="1" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="3" t="s">
@@ -1008,11 +1053,13 @@
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
     </row>
-    <row r="2" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="17"/>
+      <c r="D2" s="17" t="s">
+        <v>45</v>
+      </c>
       <c r="E2" s="16"/>
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
@@ -1026,11 +1073,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="17"/>
+      <c r="D3" s="17" t="s">
+        <v>46</v>
+      </c>
       <c r="E3" s="16"/>
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
@@ -1043,18 +1092,22 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="18"/>
+      <c r="D4" s="18">
+        <v>44505</v>
+      </c>
       <c r="E4" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
+      <c r="F4" s="28">
+        <v>1</v>
+      </c>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
       <c r="M4" t="s">
         <v>14</v>
       </c>
@@ -1062,57 +1115,59 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C5" s="6"/>
       <c r="M5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C6" s="35"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
+    <row r="6" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C6" s="29"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
       <c r="M6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="C7" s="35"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C7" s="29"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
       <c r="M7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C8" s="35" t="s">
+    <row r="8" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C8" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="C9" s="35"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33"/>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="D8" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C9" s="29"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C10" s="6"/>
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
@@ -1121,26 +1176,26 @@
       <c r="H10" s="13"/>
       <c r="I10" s="13"/>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="E11" s="32" t="s">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="E11" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32" t="s">
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32"/>
-    </row>
-    <row r="12" spans="2:15" ht="36.9" x14ac:dyDescent="0.4">
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+    </row>
+    <row r="12" spans="2:15" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B12" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="28"/>
+      <c r="D12" s="33"/>
       <c r="E12" s="5" t="s">
         <v>6</v>
       </c>
@@ -1150,72 +1205,102 @@
       <c r="G12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H12" s="38" t="s">
+      <c r="H12" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="I12" s="50"/>
-    </row>
-    <row r="13" spans="2:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I12" s="40"/>
+    </row>
+    <row r="13" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="14">
         <v>1</v>
       </c>
-      <c r="C13" s="29"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
-    </row>
-    <row r="14" spans="2:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C13" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="35"/>
+      <c r="E13" s="15">
+        <v>10</v>
+      </c>
+      <c r="F13" s="15">
+        <v>3</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="38">
+        <v>3</v>
+      </c>
+      <c r="I13" s="38"/>
+    </row>
+    <row r="14" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="14">
         <v>2</v>
       </c>
-      <c r="C14" s="29"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
-    </row>
-    <row r="15" spans="2:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C14" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="35"/>
+      <c r="E14" s="15">
+        <v>10</v>
+      </c>
+      <c r="F14" s="15">
+        <v>3</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="38">
+        <v>3</v>
+      </c>
+      <c r="I14" s="38"/>
+    </row>
+    <row r="15" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="14">
         <v>3</v>
       </c>
-      <c r="C15" s="29"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37"/>
-    </row>
-    <row r="16" spans="2:15" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C15" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="35"/>
+      <c r="E15" s="15">
+        <v>10</v>
+      </c>
+      <c r="F15" s="15">
+        <v>3</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="38">
+        <v>3</v>
+      </c>
+      <c r="I15" s="38"/>
+    </row>
+    <row r="16" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="14">
         <v>4</v>
       </c>
-      <c r="C16" s="29"/>
-      <c r="D16" s="30"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="35"/>
       <c r="E16" s="15"/>
       <c r="F16" s="15"/>
       <c r="G16" s="14"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37"/>
-    </row>
-    <row r="17" spans="2:10" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
+    </row>
+    <row r="17" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="14">
         <v>5</v>
       </c>
-      <c r="C17" s="29"/>
-      <c r="D17" s="30"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="35"/>
       <c r="E17" s="15"/>
       <c r="F17" s="15"/>
       <c r="G17" s="14"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="37"/>
-    </row>
-    <row r="18" spans="2:10" s="11" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+    </row>
+    <row r="18" spans="2:10" s="11" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="19"/>
       <c r="C18" s="19"/>
       <c r="E18" s="12" t="s">
@@ -1223,21 +1308,21 @@
       </c>
       <c r="F18" s="15">
         <f>SUM(E13:E17)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G18" s="15">
         <f>SUM(F13:F17)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H18" s="12" t="s">
         <v>20</v>
       </c>
       <c r="I18" s="15">
         <f>SUM(H13:H17)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19" s="2"/>
       <c r="C19" s="6"/>
       <c r="E19" s="6"/>
@@ -1247,7 +1332,7 @@
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="E20" s="6"/>
@@ -1257,7 +1342,7 @@
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="E21" s="6"/>
@@ -1267,7 +1352,7 @@
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="E22" s="6"/>
@@ -1277,7 +1362,7 @@
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="E23" s="6"/>
@@ -1287,7 +1372,7 @@
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="E24" s="6"/>
@@ -1297,7 +1382,7 @@
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="E25" s="6"/>
@@ -1307,7 +1392,7 @@
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="E26" s="6"/>
@@ -1317,7 +1402,7 @@
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="E27" s="6"/>
@@ -1329,11 +1414,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="B1:J1"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="D6:I7"/>
@@ -1349,13 +1429,18 @@
     <mergeCell ref="H16:I16"/>
     <mergeCell ref="H17:I17"/>
     <mergeCell ref="H12:I12"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="B1:J1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M7 G14:G17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M7 G14:G17" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$M$2:$M$7</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M10 G13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M10 G13" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>$M$2:$M$8</formula1>
     </dataValidation>
   </dataValidations>
@@ -1366,35 +1451,35 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:J30"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D4" sqref="D4:H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.1640625" customWidth="1"/>
+    <col min="1" max="1" width="1.140625" customWidth="1"/>
     <col min="2" max="3" width="9" customWidth="1"/>
-    <col min="4" max="4" width="9.83203125" customWidth="1"/>
-    <col min="5" max="7" width="10.88671875" customWidth="1"/>
-    <col min="8" max="8" width="15.609375" customWidth="1"/>
-    <col min="9" max="256" width="10.88671875" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" customWidth="1"/>
+    <col min="5" max="7" width="10.85546875" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" customWidth="1"/>
+    <col min="9" max="256" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="15" x14ac:dyDescent="0.5">
-      <c r="B1" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-    </row>
-    <row r="2" spans="2:10" ht="15" x14ac:dyDescent="0.5">
+    <row r="1" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+    </row>
+    <row r="2" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -1405,74 +1490,74 @@
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
     </row>
-    <row r="3" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="45" t="s">
+    <row r="3" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="47" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
       <c r="I3" s="8"/>
     </row>
-    <row r="4" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="47" t="s">
+    <row r="4" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
       <c r="I4" s="8"/>
     </row>
-    <row r="5" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="40" t="s">
+    <row r="5" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="41"/>
-      <c r="D5" s="48" t="s">
+      <c r="C5" s="48"/>
+      <c r="D5" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-    </row>
-    <row r="6" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="40"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+    </row>
+    <row r="6" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="47"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C7" s="10"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C8" s="10"/>
     </row>
-    <row r="9" spans="2:10" ht="12.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="42" t="s">
+    <row r="9" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="44"/>
-    </row>
-    <row r="10" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="51"/>
+    </row>
+    <row r="10" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="24" t="s">
         <v>28</v>
       </c>
@@ -1482,14 +1567,14 @@
       <c r="D10" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="39" t="s">
+      <c r="E10" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-    </row>
-    <row r="11" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+    </row>
+    <row r="11" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="22" t="s">
         <v>2</v>
       </c>
@@ -1499,14 +1584,14 @@
       <c r="D11" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="39" t="s">
+      <c r="E11" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-    </row>
-    <row r="12" spans="2:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+    </row>
+    <row r="12" spans="2:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="20" t="s">
         <v>24</v>
       </c>
@@ -1516,14 +1601,14 @@
       <c r="D12" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="39" t="s">
+      <c r="E12" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-    </row>
-    <row r="13" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+    </row>
+    <row r="13" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="24" t="s">
         <v>29</v>
       </c>
@@ -1533,12 +1618,12 @@
       <c r="D13" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-    </row>
-    <row r="14" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+    </row>
+    <row r="14" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="22" t="s">
         <v>26</v>
       </c>
@@ -1548,12 +1633,12 @@
       <c r="D14" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-    </row>
-    <row r="15" spans="2:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+    </row>
+    <row r="15" spans="2:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="20" t="s">
         <v>24</v>
       </c>
@@ -1563,12 +1648,12 @@
       <c r="D15" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-    </row>
-    <row r="16" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+    </row>
+    <row r="16" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="24" t="s">
         <v>29</v>
       </c>
@@ -1578,12 +1663,12 @@
       <c r="D16" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-    </row>
-    <row r="17" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+    </row>
+    <row r="17" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="22" t="s">
         <v>26</v>
       </c>
@@ -1593,12 +1678,12 @@
       <c r="D17" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
-    </row>
-    <row r="18" spans="2:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
+    </row>
+    <row r="18" spans="2:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="20" t="s">
         <v>24</v>
       </c>
@@ -1608,12 +1693,12 @@
       <c r="D18" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-    </row>
-    <row r="19" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="43"/>
+    </row>
+    <row r="19" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="24" t="s">
         <v>29</v>
       </c>
@@ -1623,12 +1708,12 @@
       <c r="D19" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-    </row>
-    <row r="20" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+    </row>
+    <row r="20" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="22" t="s">
         <v>26</v>
       </c>
@@ -1638,12 +1723,12 @@
       <c r="D20" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
-    </row>
-    <row r="21" spans="2:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="43"/>
+    </row>
+    <row r="21" spans="2:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="20" t="s">
         <v>24</v>
       </c>
@@ -1653,12 +1738,12 @@
       <c r="D21" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="39"/>
-    </row>
-    <row r="22" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="43"/>
+    </row>
+    <row r="22" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="24" t="s">
         <v>29</v>
       </c>
@@ -1668,12 +1753,12 @@
       <c r="D22" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
-    </row>
-    <row r="23" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="43"/>
+    </row>
+    <row r="23" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="22" t="s">
         <v>26</v>
       </c>
@@ -1683,12 +1768,12 @@
       <c r="D23" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="39"/>
-    </row>
-    <row r="24" spans="2:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="43"/>
+    </row>
+    <row r="24" spans="2:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="20" t="s">
         <v>24</v>
       </c>
@@ -1698,12 +1783,12 @@
       <c r="D24" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="39"/>
-    </row>
-    <row r="25" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E24" s="43"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="43"/>
+    </row>
+    <row r="25" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="24" t="s">
         <v>29</v>
       </c>
@@ -1713,12 +1798,12 @@
       <c r="D25" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="39"/>
-    </row>
-    <row r="26" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E25" s="43"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="43"/>
+    </row>
+    <row r="26" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="22" t="s">
         <v>26</v>
       </c>
@@ -1728,12 +1813,12 @@
       <c r="D26" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="E26" s="39"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="39"/>
-    </row>
-    <row r="27" spans="2:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="43"/>
+    </row>
+    <row r="27" spans="2:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="20" t="s">
         <v>24</v>
       </c>
@@ -1743,12 +1828,12 @@
       <c r="D27" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="E27" s="39"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="39"/>
-    </row>
-    <row r="28" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E27" s="43"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="43"/>
+    </row>
+    <row r="28" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="24" t="s">
         <v>29</v>
       </c>
@@ -1758,12 +1843,12 @@
       <c r="D28" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="E28" s="39"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="39"/>
-    </row>
-    <row r="29" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E28" s="43"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
+    </row>
+    <row r="29" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="22" t="s">
         <v>26</v>
       </c>
@@ -1773,12 +1858,12 @@
       <c r="D29" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="E29" s="39"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39"/>
-    </row>
-    <row r="30" spans="2:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="E29" s="43"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="43"/>
+    </row>
+    <row r="30" spans="2:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="20" t="s">
         <v>24</v>
       </c>
@@ -1788,13 +1873,28 @@
       <c r="D30" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="E30" s="39"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="39"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="E30:H30"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="E23:H23"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="E19:H19"/>
     <mergeCell ref="B1:H1"/>
@@ -1811,21 +1911,6 @@
     <mergeCell ref="D3:H3"/>
     <mergeCell ref="E18:H18"/>
     <mergeCell ref="E17:H17"/>
-    <mergeCell ref="E29:H29"/>
-    <mergeCell ref="E30:H30"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="E23:H23"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1835,35 +1920,35 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:J30"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:H6"/>
+      <selection activeCell="D4" sqref="D4:H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.1640625" customWidth="1"/>
+    <col min="1" max="1" width="1.140625" customWidth="1"/>
     <col min="2" max="3" width="9" customWidth="1"/>
-    <col min="4" max="4" width="9.83203125" customWidth="1"/>
-    <col min="5" max="7" width="10.88671875" customWidth="1"/>
-    <col min="8" max="8" width="15.609375" customWidth="1"/>
-    <col min="9" max="256" width="10.88671875" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" customWidth="1"/>
+    <col min="5" max="7" width="10.85546875" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" customWidth="1"/>
+    <col min="9" max="256" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="15" x14ac:dyDescent="0.5">
-      <c r="B1" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-    </row>
-    <row r="2" spans="2:10" ht="15" x14ac:dyDescent="0.5">
+    <row r="1" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+    </row>
+    <row r="2" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -1874,74 +1959,74 @@
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
     </row>
-    <row r="3" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="45" t="s">
+    <row r="3" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="47" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
       <c r="I3" s="8"/>
     </row>
-    <row r="4" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="47" t="s">
+    <row r="4" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
       <c r="I4" s="8"/>
     </row>
-    <row r="5" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="40" t="s">
+    <row r="5" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="41"/>
-      <c r="D5" s="48" t="s">
+      <c r="C5" s="48"/>
+      <c r="D5" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-    </row>
-    <row r="6" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="40"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+    </row>
+    <row r="6" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="47"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C7" s="10"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C8" s="10"/>
     </row>
-    <row r="9" spans="2:10" ht="12.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="42" t="s">
+    <row r="9" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="44"/>
-    </row>
-    <row r="10" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="51"/>
+    </row>
+    <row r="10" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="24" t="s">
         <v>28</v>
       </c>
@@ -1951,14 +2036,14 @@
       <c r="D10" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="39" t="s">
+      <c r="E10" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-    </row>
-    <row r="11" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+    </row>
+    <row r="11" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="22" t="s">
         <v>2</v>
       </c>
@@ -1968,14 +2053,14 @@
       <c r="D11" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="39" t="s">
+      <c r="E11" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-    </row>
-    <row r="12" spans="2:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+    </row>
+    <row r="12" spans="2:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="20" t="s">
         <v>24</v>
       </c>
@@ -1985,14 +2070,14 @@
       <c r="D12" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="39" t="s">
+      <c r="E12" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-    </row>
-    <row r="13" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+    </row>
+    <row r="13" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="24" t="s">
         <v>29</v>
       </c>
@@ -2002,12 +2087,12 @@
       <c r="D13" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-    </row>
-    <row r="14" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+    </row>
+    <row r="14" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="22" t="s">
         <v>26</v>
       </c>
@@ -2017,12 +2102,12 @@
       <c r="D14" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-    </row>
-    <row r="15" spans="2:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+    </row>
+    <row r="15" spans="2:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="20" t="s">
         <v>24</v>
       </c>
@@ -2032,12 +2117,12 @@
       <c r="D15" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-    </row>
-    <row r="16" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+    </row>
+    <row r="16" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="24" t="s">
         <v>29</v>
       </c>
@@ -2047,12 +2132,12 @@
       <c r="D16" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-    </row>
-    <row r="17" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+    </row>
+    <row r="17" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="22" t="s">
         <v>26</v>
       </c>
@@ -2062,12 +2147,12 @@
       <c r="D17" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
-    </row>
-    <row r="18" spans="2:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
+    </row>
+    <row r="18" spans="2:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="20" t="s">
         <v>24</v>
       </c>
@@ -2077,12 +2162,12 @@
       <c r="D18" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-    </row>
-    <row r="19" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="43"/>
+    </row>
+    <row r="19" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="24" t="s">
         <v>29</v>
       </c>
@@ -2092,12 +2177,12 @@
       <c r="D19" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-    </row>
-    <row r="20" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+    </row>
+    <row r="20" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="22" t="s">
         <v>26</v>
       </c>
@@ -2107,12 +2192,12 @@
       <c r="D20" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
-    </row>
-    <row r="21" spans="2:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="43"/>
+    </row>
+    <row r="21" spans="2:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="20" t="s">
         <v>24</v>
       </c>
@@ -2122,12 +2207,12 @@
       <c r="D21" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="39"/>
-    </row>
-    <row r="22" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="43"/>
+    </row>
+    <row r="22" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="24" t="s">
         <v>29</v>
       </c>
@@ -2137,12 +2222,12 @@
       <c r="D22" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
-    </row>
-    <row r="23" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="43"/>
+    </row>
+    <row r="23" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="22" t="s">
         <v>26</v>
       </c>
@@ -2152,12 +2237,12 @@
       <c r="D23" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="39"/>
-    </row>
-    <row r="24" spans="2:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="43"/>
+    </row>
+    <row r="24" spans="2:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="20" t="s">
         <v>24</v>
       </c>
@@ -2167,12 +2252,12 @@
       <c r="D24" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="39"/>
-    </row>
-    <row r="25" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E24" s="43"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="43"/>
+    </row>
+    <row r="25" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="24" t="s">
         <v>29</v>
       </c>
@@ -2182,12 +2267,12 @@
       <c r="D25" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="39"/>
-    </row>
-    <row r="26" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E25" s="43"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="43"/>
+    </row>
+    <row r="26" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="22" t="s">
         <v>26</v>
       </c>
@@ -2197,12 +2282,12 @@
       <c r="D26" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="E26" s="39"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="39"/>
-    </row>
-    <row r="27" spans="2:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="43"/>
+    </row>
+    <row r="27" spans="2:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="20" t="s">
         <v>24</v>
       </c>
@@ -2212,12 +2297,12 @@
       <c r="D27" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="E27" s="39"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="39"/>
-    </row>
-    <row r="28" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E27" s="43"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="43"/>
+    </row>
+    <row r="28" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="24" t="s">
         <v>29</v>
       </c>
@@ -2227,12 +2312,12 @@
       <c r="D28" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="E28" s="39"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="39"/>
-    </row>
-    <row r="29" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E28" s="43"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
+    </row>
+    <row r="29" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="22" t="s">
         <v>26</v>
       </c>
@@ -2242,12 +2327,12 @@
       <c r="D29" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="E29" s="39"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39"/>
-    </row>
-    <row r="30" spans="2:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="E29" s="43"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="43"/>
+    </row>
+    <row r="30" spans="2:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="20" t="s">
         <v>24</v>
       </c>
@@ -2257,13 +2342,32 @@
       <c r="D30" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="E30" s="39"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="39"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="E17:H17"/>
     <mergeCell ref="E30:H30"/>
     <mergeCell ref="E19:H19"/>
     <mergeCell ref="E20:H20"/>
@@ -2276,6 +2380,451 @@
     <mergeCell ref="E27:H27"/>
     <mergeCell ref="E28:H28"/>
     <mergeCell ref="E29:H29"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="B1:J30"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="1.140625" customWidth="1"/>
+    <col min="2" max="3" width="9" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" customWidth="1"/>
+    <col min="5" max="7" width="10.85546875" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" customWidth="1"/>
+    <col min="9" max="256" width="10.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+    </row>
+    <row r="2" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+    </row>
+    <row r="3" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="42"/>
+      <c r="D3" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="8"/>
+    </row>
+    <row r="4" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="42"/>
+      <c r="D4" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="8"/>
+    </row>
+    <row r="5" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="48"/>
+      <c r="D5" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+    </row>
+    <row r="6" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="47"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C7" s="10"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C8" s="10"/>
+    </row>
+    <row r="9" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="51"/>
+    </row>
+    <row r="10" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+    </row>
+    <row r="11" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="23">
+        <v>40902</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+    </row>
+    <row r="12" spans="2:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+    </row>
+    <row r="13" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+    </row>
+    <row r="14" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="23">
+        <v>40903</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+    </row>
+    <row r="15" spans="2:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+    </row>
+    <row r="16" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+    </row>
+    <row r="17" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="23">
+        <v>40904</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
+    </row>
+    <row r="18" spans="2:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="43"/>
+    </row>
+    <row r="19" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+    </row>
+    <row r="20" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="23">
+        <v>40905</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="43"/>
+    </row>
+    <row r="21" spans="2:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="43"/>
+    </row>
+    <row r="22" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="43"/>
+    </row>
+    <row r="23" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="23">
+        <v>40906</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="43"/>
+    </row>
+    <row r="24" spans="2:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="43"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="43"/>
+    </row>
+    <row r="25" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" s="43"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="43"/>
+    </row>
+    <row r="26" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="23">
+        <v>40907</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="43"/>
+    </row>
+    <row r="27" spans="2:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" s="43"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="43"/>
+    </row>
+    <row r="28" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" s="43"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
+    </row>
+    <row r="29" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="23">
+        <v>40908</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" s="43"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="43"/>
+    </row>
+    <row r="30" spans="2:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="43"/>
+    </row>
+  </sheetData>
+  <mergeCells count="31">
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:H4"/>
     <mergeCell ref="E18:H18"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
@@ -2288,451 +2837,6 @@
     <mergeCell ref="E15:H15"/>
     <mergeCell ref="E16:H16"/>
     <mergeCell ref="E17:H17"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:H4"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J30"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:H6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="1.1640625" customWidth="1"/>
-    <col min="2" max="3" width="9" customWidth="1"/>
-    <col min="4" max="4" width="9.83203125" customWidth="1"/>
-    <col min="5" max="7" width="10.88671875" customWidth="1"/>
-    <col min="8" max="8" width="15.609375" customWidth="1"/>
-    <col min="9" max="256" width="10.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:10" ht="15" x14ac:dyDescent="0.5">
-      <c r="B1" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-    </row>
-    <row r="2" spans="2:10" ht="15" x14ac:dyDescent="0.5">
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-    </row>
-    <row r="3" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="47" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="8"/>
-    </row>
-    <row r="4" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="47" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="8"/>
-    </row>
-    <row r="5" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="41"/>
-      <c r="D5" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-    </row>
-    <row r="6" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="40"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="C7" s="10"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="C8" s="10"/>
-    </row>
-    <row r="9" spans="2:10" ht="12.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="42" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="44"/>
-    </row>
-    <row r="10" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-    </row>
-    <row r="11" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="23">
-        <v>40902</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-    </row>
-    <row r="12" spans="2:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-    </row>
-    <row r="13" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-    </row>
-    <row r="14" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="23">
-        <v>40903</v>
-      </c>
-      <c r="D14" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-    </row>
-    <row r="15" spans="2:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-    </row>
-    <row r="16" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-    </row>
-    <row r="17" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="23">
-        <v>40904</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
-    </row>
-    <row r="18" spans="2:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-    </row>
-    <row r="19" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-    </row>
-    <row r="20" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="23">
-        <v>40905</v>
-      </c>
-      <c r="D20" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
-    </row>
-    <row r="21" spans="2:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="39"/>
-    </row>
-    <row r="22" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="D22" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
-    </row>
-    <row r="23" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="23">
-        <v>40906</v>
-      </c>
-      <c r="D23" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="39"/>
-    </row>
-    <row r="24" spans="2:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D24" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="39"/>
-    </row>
-    <row r="25" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D25" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="39"/>
-    </row>
-    <row r="26" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="23">
-        <v>40907</v>
-      </c>
-      <c r="D26" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="E26" s="39"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="39"/>
-    </row>
-    <row r="27" spans="2:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D27" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E27" s="39"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="39"/>
-    </row>
-    <row r="28" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="D28" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="E28" s="39"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="39"/>
-    </row>
-    <row r="29" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" s="23">
-        <v>40908</v>
-      </c>
-      <c r="D29" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="E29" s="39"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39"/>
-    </row>
-    <row r="30" spans="2:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C30" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D30" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E30" s="39"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="39"/>
-    </row>
-  </sheetData>
-  <mergeCells count="31">
     <mergeCell ref="E30:H30"/>
     <mergeCell ref="E19:H19"/>
     <mergeCell ref="E20:H20"/>
@@ -2745,6 +2849,451 @@
     <mergeCell ref="E27:H27"/>
     <mergeCell ref="E28:H28"/>
     <mergeCell ref="E29:H29"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="B1:J30"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I17" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="1.140625" customWidth="1"/>
+    <col min="2" max="3" width="9" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" customWidth="1"/>
+    <col min="5" max="7" width="10.85546875" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" customWidth="1"/>
+    <col min="9" max="256" width="10.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+    </row>
+    <row r="2" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+    </row>
+    <row r="3" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="42"/>
+      <c r="D3" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="8"/>
+    </row>
+    <row r="4" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="42"/>
+      <c r="D4" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="8"/>
+    </row>
+    <row r="5" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="48"/>
+      <c r="D5" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+    </row>
+    <row r="6" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="47"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C7" s="10"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C8" s="10"/>
+    </row>
+    <row r="9" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="51"/>
+    </row>
+    <row r="10" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+    </row>
+    <row r="11" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="23">
+        <v>40902</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+    </row>
+    <row r="12" spans="2:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+    </row>
+    <row r="13" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+    </row>
+    <row r="14" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="23">
+        <v>40903</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+    </row>
+    <row r="15" spans="2:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+    </row>
+    <row r="16" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+    </row>
+    <row r="17" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="23">
+        <v>40904</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
+    </row>
+    <row r="18" spans="2:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="43"/>
+    </row>
+    <row r="19" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+    </row>
+    <row r="20" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="23">
+        <v>40905</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="43"/>
+    </row>
+    <row r="21" spans="2:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="43"/>
+    </row>
+    <row r="22" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="43"/>
+    </row>
+    <row r="23" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="23">
+        <v>40906</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="43"/>
+    </row>
+    <row r="24" spans="2:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="43"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="43"/>
+    </row>
+    <row r="25" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" s="43"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="43"/>
+    </row>
+    <row r="26" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="23">
+        <v>40907</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="43"/>
+    </row>
+    <row r="27" spans="2:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" s="43"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="43"/>
+    </row>
+    <row r="28" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" s="43"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
+    </row>
+    <row r="29" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="23">
+        <v>40908</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" s="43"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="43"/>
+    </row>
+    <row r="30" spans="2:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="43"/>
+    </row>
+  </sheetData>
+  <mergeCells count="31">
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:H4"/>
     <mergeCell ref="E18:H18"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
@@ -2757,451 +3306,6 @@
     <mergeCell ref="E15:H15"/>
     <mergeCell ref="E16:H16"/>
     <mergeCell ref="E17:H17"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:H4"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J30"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="1.1640625" customWidth="1"/>
-    <col min="2" max="3" width="9" customWidth="1"/>
-    <col min="4" max="4" width="9.83203125" customWidth="1"/>
-    <col min="5" max="7" width="10.88671875" customWidth="1"/>
-    <col min="8" max="8" width="15.609375" customWidth="1"/>
-    <col min="9" max="256" width="10.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:10" ht="15" x14ac:dyDescent="0.5">
-      <c r="B1" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-    </row>
-    <row r="2" spans="2:10" ht="15" x14ac:dyDescent="0.5">
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-    </row>
-    <row r="3" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="47" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="8"/>
-    </row>
-    <row r="4" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="47" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="8"/>
-    </row>
-    <row r="5" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="41"/>
-      <c r="D5" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-    </row>
-    <row r="6" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="40"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="C7" s="10"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="C8" s="10"/>
-    </row>
-    <row r="9" spans="2:10" ht="12.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="42" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="44"/>
-    </row>
-    <row r="10" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-    </row>
-    <row r="11" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="23">
-        <v>40902</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-    </row>
-    <row r="12" spans="2:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-    </row>
-    <row r="13" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-    </row>
-    <row r="14" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="23">
-        <v>40903</v>
-      </c>
-      <c r="D14" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-    </row>
-    <row r="15" spans="2:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-    </row>
-    <row r="16" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-    </row>
-    <row r="17" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="23">
-        <v>40904</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
-    </row>
-    <row r="18" spans="2:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-    </row>
-    <row r="19" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-    </row>
-    <row r="20" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="23">
-        <v>40905</v>
-      </c>
-      <c r="D20" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
-    </row>
-    <row r="21" spans="2:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="39"/>
-    </row>
-    <row r="22" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="D22" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
-    </row>
-    <row r="23" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="23">
-        <v>40906</v>
-      </c>
-      <c r="D23" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="39"/>
-    </row>
-    <row r="24" spans="2:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D24" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="39"/>
-    </row>
-    <row r="25" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D25" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="39"/>
-    </row>
-    <row r="26" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="23">
-        <v>40907</v>
-      </c>
-      <c r="D26" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="E26" s="39"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="39"/>
-    </row>
-    <row r="27" spans="2:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D27" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E27" s="39"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="39"/>
-    </row>
-    <row r="28" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="D28" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="E28" s="39"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="39"/>
-    </row>
-    <row r="29" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" s="23">
-        <v>40908</v>
-      </c>
-      <c r="D29" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="E29" s="39"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39"/>
-    </row>
-    <row r="30" spans="2:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C30" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D30" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E30" s="39"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="39"/>
-    </row>
-  </sheetData>
-  <mergeCells count="31">
     <mergeCell ref="E30:H30"/>
     <mergeCell ref="E19:H19"/>
     <mergeCell ref="E20:H20"/>
@@ -3214,6 +3318,459 @@
     <mergeCell ref="E27:H27"/>
     <mergeCell ref="E28:H28"/>
     <mergeCell ref="E29:H29"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6869C66F-4D4B-4257-9E63-29A5D2167D24}">
+  <dimension ref="B1:J30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="1.140625" customWidth="1"/>
+    <col min="2" max="3" width="9" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" customWidth="1"/>
+    <col min="5" max="7" width="10.85546875" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" customWidth="1"/>
+    <col min="9" max="256" width="10.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+    </row>
+    <row r="2" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+    </row>
+    <row r="3" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="42"/>
+      <c r="D3" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="8"/>
+    </row>
+    <row r="4" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="42"/>
+      <c r="D4" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="8"/>
+    </row>
+    <row r="5" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="48"/>
+      <c r="D5" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+    </row>
+    <row r="6" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="47"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C7" s="10"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C8" s="10"/>
+    </row>
+    <row r="9" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="51"/>
+    </row>
+    <row r="10" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+    </row>
+    <row r="11" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="23">
+        <v>44238</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+    </row>
+    <row r="12" spans="2:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="21">
+        <v>2</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+    </row>
+    <row r="13" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+    </row>
+    <row r="14" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="23">
+        <v>40903</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+    </row>
+    <row r="15" spans="2:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+    </row>
+    <row r="16" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+    </row>
+    <row r="17" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="23">
+        <v>44297</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
+    </row>
+    <row r="18" spans="2:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="21">
+        <v>3</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="43"/>
+    </row>
+    <row r="19" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+    </row>
+    <row r="20" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="23">
+        <v>40905</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="43"/>
+    </row>
+    <row r="21" spans="2:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="43"/>
+    </row>
+    <row r="22" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="43"/>
+    </row>
+    <row r="23" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="23">
+        <v>40906</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="43"/>
+    </row>
+    <row r="24" spans="2:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="43"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="43"/>
+    </row>
+    <row r="25" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" s="43"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="43"/>
+    </row>
+    <row r="26" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="23">
+        <v>40907</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="43"/>
+    </row>
+    <row r="27" spans="2:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" s="43"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="43"/>
+    </row>
+    <row r="28" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" s="43"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
+    </row>
+    <row r="29" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="23">
+        <v>40908</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" s="43"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="43"/>
+    </row>
+    <row r="30" spans="2:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="43"/>
+    </row>
+  </sheetData>
+  <mergeCells count="31">
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="E30:H30"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="E17:H17"/>
     <mergeCell ref="E18:H18"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
@@ -3221,22 +3778,14 @@
     <mergeCell ref="E10:H10"/>
     <mergeCell ref="E11:H11"/>
     <mergeCell ref="E12:H12"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:H5"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:H3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="D4:H4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:H5"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <headerFooter alignWithMargins="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Status Report Template.xlsx
+++ b/Status Report Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\CSUATM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB5FC0FC-9BAD-49D1-90F1-4E009E4EBDCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FAE4397-15AC-40B7-B6A3-46914A96DEDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21480" yWindow="4080" windowWidth="23925" windowHeight="14445" tabRatio="644" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20790" yWindow="3390" windowWidth="23925" windowHeight="14445" tabRatio="644" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Status Report Page 1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="58">
   <si>
     <t>Project Name:</t>
   </si>
@@ -229,6 +229,9 @@
   </si>
   <si>
     <t>Used sqlite to build a database</t>
+  </si>
+  <si>
+    <t>Suhev</t>
   </si>
 </sst>
 </file>
@@ -533,60 +536,47 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -600,6 +590,19 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1034,17 +1037,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="3" t="s">
@@ -1102,12 +1105,12 @@
       <c r="E4" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="28">
+      <c r="F4" s="38">
         <v>1</v>
       </c>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
       <c r="M4" t="s">
         <v>14</v>
       </c>
@@ -1122,50 +1125,50 @@
       </c>
     </row>
     <row r="6" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="29"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
       <c r="M6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="C7" s="29"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
       <c r="M7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="37" t="s">
+      <c r="D8" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="C9" s="29"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C10" s="6"/>
@@ -1177,25 +1180,25 @@
       <c r="I10" s="13"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="E11" s="30" t="s">
+      <c r="E11" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30" t="s">
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
     </row>
     <row r="12" spans="2:15" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B12" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="32" t="s">
+      <c r="C12" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="33"/>
+      <c r="D12" s="29"/>
       <c r="E12" s="5" t="s">
         <v>6</v>
       </c>
@@ -1205,19 +1208,19 @@
       <c r="G12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H12" s="39" t="s">
+      <c r="H12" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="I12" s="40"/>
+      <c r="I12" s="37"/>
     </row>
     <row r="13" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="14">
         <v>1</v>
       </c>
-      <c r="C13" s="34" t="s">
+      <c r="C13" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="D13" s="35"/>
+      <c r="D13" s="31"/>
       <c r="E13" s="15">
         <v>10</v>
       </c>
@@ -1227,19 +1230,19 @@
       <c r="G13" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="H13" s="38">
+      <c r="H13" s="35">
         <v>3</v>
       </c>
-      <c r="I13" s="38"/>
+      <c r="I13" s="35"/>
     </row>
     <row r="14" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="14">
         <v>2</v>
       </c>
-      <c r="C14" s="34" t="s">
+      <c r="C14" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="35"/>
+      <c r="D14" s="31"/>
       <c r="E14" s="15">
         <v>10</v>
       </c>
@@ -1249,19 +1252,19 @@
       <c r="G14" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="38">
+      <c r="H14" s="35">
         <v>3</v>
       </c>
-      <c r="I14" s="38"/>
+      <c r="I14" s="35"/>
     </row>
     <row r="15" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="14">
         <v>3</v>
       </c>
-      <c r="C15" s="34" t="s">
+      <c r="C15" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="35"/>
+      <c r="D15" s="31"/>
       <c r="E15" s="15">
         <v>10</v>
       </c>
@@ -1271,34 +1274,34 @@
       <c r="G15" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="H15" s="38">
+      <c r="H15" s="35">
         <v>3</v>
       </c>
-      <c r="I15" s="38"/>
+      <c r="I15" s="35"/>
     </row>
     <row r="16" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="14">
         <v>4</v>
       </c>
-      <c r="C16" s="34"/>
-      <c r="D16" s="35"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="31"/>
       <c r="E16" s="15"/>
       <c r="F16" s="15"/>
       <c r="G16" s="14"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
     </row>
     <row r="17" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="14">
         <v>5</v>
       </c>
-      <c r="C17" s="34"/>
-      <c r="D17" s="35"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="31"/>
       <c r="E17" s="15"/>
       <c r="F17" s="15"/>
       <c r="G17" s="14"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
     </row>
     <row r="18" spans="2:10" s="11" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="19"/>
@@ -1414,6 +1417,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="B1:J1"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="D6:I7"/>
@@ -1429,11 +1437,6 @@
     <mergeCell ref="H16:I16"/>
     <mergeCell ref="H17:I17"/>
     <mergeCell ref="H12:I12"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="B1:J1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
@@ -1469,15 +1472,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
     </row>
     <row r="2" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="9"/>
@@ -1491,54 +1494,54 @@
       <c r="J2" s="9"/>
     </row>
     <row r="3" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="44" t="s">
+      <c r="C3" s="48"/>
+      <c r="D3" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
       <c r="I3" s="8"/>
     </row>
     <row r="4" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="42"/>
-      <c r="D4" s="44" t="s">
+      <c r="C4" s="48"/>
+      <c r="D4" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
       <c r="I4" s="8"/>
     </row>
     <row r="5" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="45" t="s">
+      <c r="C5" s="43"/>
+      <c r="D5" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
     </row>
     <row r="6" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="47"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C7" s="10"/>
@@ -1547,15 +1550,15 @@
       <c r="C8" s="10"/>
     </row>
     <row r="9" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="49" t="s">
+      <c r="B9" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="51"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="46"/>
     </row>
     <row r="10" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="24" t="s">
@@ -1567,12 +1570,12 @@
       <c r="D10" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="43" t="s">
+      <c r="E10" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
     </row>
     <row r="11" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="22" t="s">
@@ -1584,12 +1587,12 @@
       <c r="D11" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="43" t="s">
+      <c r="E11" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
     </row>
     <row r="12" spans="2:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="20" t="s">
@@ -1601,12 +1604,12 @@
       <c r="D12" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="43" t="s">
+      <c r="E12" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
     </row>
     <row r="13" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="24" t="s">
@@ -1618,10 +1621,10 @@
       <c r="D13" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
     </row>
     <row r="14" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="22" t="s">
@@ -1633,10 +1636,10 @@
       <c r="D14" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
     </row>
     <row r="15" spans="2:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="20" t="s">
@@ -1648,10 +1651,10 @@
       <c r="D15" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
     </row>
     <row r="16" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="24" t="s">
@@ -1663,10 +1666,10 @@
       <c r="D16" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
     </row>
     <row r="17" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="22" t="s">
@@ -1678,10 +1681,10 @@
       <c r="D17" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
     </row>
     <row r="18" spans="2:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="20" t="s">
@@ -1693,10 +1696,10 @@
       <c r="D18" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="43"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
     </row>
     <row r="19" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="24" t="s">
@@ -1708,10 +1711,10 @@
       <c r="D19" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="43"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
     </row>
     <row r="20" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="22" t="s">
@@ -1723,10 +1726,10 @@
       <c r="D20" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="43"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
     </row>
     <row r="21" spans="2:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="20" t="s">
@@ -1738,10 +1741,10 @@
       <c r="D21" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="43"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
     </row>
     <row r="22" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="24" t="s">
@@ -1753,10 +1756,10 @@
       <c r="D22" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="43"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
     </row>
     <row r="23" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="22" t="s">
@@ -1768,10 +1771,10 @@
       <c r="D23" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="E23" s="43"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="43"/>
-      <c r="H23" s="43"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
     </row>
     <row r="24" spans="2:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="20" t="s">
@@ -1783,10 +1786,10 @@
       <c r="D24" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="43"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="43"/>
-      <c r="H24" s="43"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
     </row>
     <row r="25" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="24" t="s">
@@ -1798,10 +1801,10 @@
       <c r="D25" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="E25" s="43"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="43"/>
-      <c r="H25" s="43"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
     </row>
     <row r="26" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="22" t="s">
@@ -1813,10 +1816,10 @@
       <c r="D26" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="E26" s="43"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="43"/>
-      <c r="H26" s="43"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41"/>
     </row>
     <row r="27" spans="2:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="20" t="s">
@@ -1828,10 +1831,10 @@
       <c r="D27" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="E27" s="43"/>
-      <c r="F27" s="43"/>
-      <c r="G27" s="43"/>
-      <c r="H27" s="43"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
     </row>
     <row r="28" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="24" t="s">
@@ -1843,10 +1846,10 @@
       <c r="D28" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="E28" s="43"/>
-      <c r="F28" s="43"/>
-      <c r="G28" s="43"/>
-      <c r="H28" s="43"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="41"/>
     </row>
     <row r="29" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="22" t="s">
@@ -1858,10 +1861,10 @@
       <c r="D29" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="E29" s="43"/>
-      <c r="F29" s="43"/>
-      <c r="G29" s="43"/>
-      <c r="H29" s="43"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="41"/>
     </row>
     <row r="30" spans="2:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="20" t="s">
@@ -1873,28 +1876,13 @@
       <c r="D30" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="E30" s="43"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="43"/>
-      <c r="H30" s="43"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="E29:H29"/>
-    <mergeCell ref="E30:H30"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="E23:H23"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="E19:H19"/>
     <mergeCell ref="B1:H1"/>
@@ -1911,6 +1899,21 @@
     <mergeCell ref="D3:H3"/>
     <mergeCell ref="E18:H18"/>
     <mergeCell ref="E17:H17"/>
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="E30:H30"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="E23:H23"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1938,15 +1941,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
     </row>
     <row r="2" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="9"/>
@@ -1960,54 +1963,54 @@
       <c r="J2" s="9"/>
     </row>
     <row r="3" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="44" t="s">
+      <c r="C3" s="48"/>
+      <c r="D3" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
       <c r="I3" s="8"/>
     </row>
     <row r="4" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="42"/>
-      <c r="D4" s="44" t="s">
+      <c r="C4" s="48"/>
+      <c r="D4" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
       <c r="I4" s="8"/>
     </row>
     <row r="5" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="45" t="s">
+      <c r="C5" s="43"/>
+      <c r="D5" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
     </row>
     <row r="6" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="47"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C7" s="10"/>
@@ -2016,15 +2019,15 @@
       <c r="C8" s="10"/>
     </row>
     <row r="9" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="49" t="s">
+      <c r="B9" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="51"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="46"/>
     </row>
     <row r="10" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="24" t="s">
@@ -2036,12 +2039,12 @@
       <c r="D10" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="43" t="s">
+      <c r="E10" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
     </row>
     <row r="11" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="22" t="s">
@@ -2053,12 +2056,12 @@
       <c r="D11" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="43" t="s">
+      <c r="E11" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
     </row>
     <row r="12" spans="2:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="20" t="s">
@@ -2070,12 +2073,12 @@
       <c r="D12" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="43" t="s">
+      <c r="E12" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
     </row>
     <row r="13" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="24" t="s">
@@ -2087,10 +2090,10 @@
       <c r="D13" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
     </row>
     <row r="14" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="22" t="s">
@@ -2102,10 +2105,10 @@
       <c r="D14" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
     </row>
     <row r="15" spans="2:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="20" t="s">
@@ -2117,10 +2120,10 @@
       <c r="D15" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
     </row>
     <row r="16" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="24" t="s">
@@ -2132,10 +2135,10 @@
       <c r="D16" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
     </row>
     <row r="17" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="22" t="s">
@@ -2147,10 +2150,10 @@
       <c r="D17" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
     </row>
     <row r="18" spans="2:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="20" t="s">
@@ -2162,10 +2165,10 @@
       <c r="D18" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="43"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
     </row>
     <row r="19" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="24" t="s">
@@ -2177,10 +2180,10 @@
       <c r="D19" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="43"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
     </row>
     <row r="20" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="22" t="s">
@@ -2192,10 +2195,10 @@
       <c r="D20" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="43"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
     </row>
     <row r="21" spans="2:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="20" t="s">
@@ -2207,10 +2210,10 @@
       <c r="D21" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="43"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
     </row>
     <row r="22" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="24" t="s">
@@ -2222,10 +2225,10 @@
       <c r="D22" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="43"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
     </row>
     <row r="23" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="22" t="s">
@@ -2237,10 +2240,10 @@
       <c r="D23" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="E23" s="43"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="43"/>
-      <c r="H23" s="43"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
     </row>
     <row r="24" spans="2:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="20" t="s">
@@ -2252,10 +2255,10 @@
       <c r="D24" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="43"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="43"/>
-      <c r="H24" s="43"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
     </row>
     <row r="25" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="24" t="s">
@@ -2267,10 +2270,10 @@
       <c r="D25" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="E25" s="43"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="43"/>
-      <c r="H25" s="43"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
     </row>
     <row r="26" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="22" t="s">
@@ -2282,10 +2285,10 @@
       <c r="D26" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="E26" s="43"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="43"/>
-      <c r="H26" s="43"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41"/>
     </row>
     <row r="27" spans="2:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="20" t="s">
@@ -2297,10 +2300,10 @@
       <c r="D27" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="E27" s="43"/>
-      <c r="F27" s="43"/>
-      <c r="G27" s="43"/>
-      <c r="H27" s="43"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
     </row>
     <row r="28" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="24" t="s">
@@ -2312,10 +2315,10 @@
       <c r="D28" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="E28" s="43"/>
-      <c r="F28" s="43"/>
-      <c r="G28" s="43"/>
-      <c r="H28" s="43"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="41"/>
     </row>
     <row r="29" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="22" t="s">
@@ -2327,10 +2330,10 @@
       <c r="D29" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="E29" s="43"/>
-      <c r="F29" s="43"/>
-      <c r="G29" s="43"/>
-      <c r="H29" s="43"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="41"/>
     </row>
     <row r="30" spans="2:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="20" t="s">
@@ -2342,10 +2345,1415 @@
       <c r="D30" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="E30" s="43"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="43"/>
-      <c r="H30" s="43"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="41"/>
+    </row>
+  </sheetData>
+  <mergeCells count="31">
+    <mergeCell ref="E30:H30"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:H4"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="B1:J30"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="1.140625" customWidth="1"/>
+    <col min="2" max="3" width="9" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" customWidth="1"/>
+    <col min="5" max="7" width="10.85546875" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" customWidth="1"/>
+    <col min="9" max="256" width="10.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+    </row>
+    <row r="2" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+    </row>
+    <row r="3" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="48"/>
+      <c r="D3" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="8"/>
+    </row>
+    <row r="4" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="48"/>
+      <c r="D4" s="49" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="8"/>
+    </row>
+    <row r="5" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="43"/>
+      <c r="D5" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+    </row>
+    <row r="6" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="42"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C7" s="10"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C8" s="10"/>
+    </row>
+    <row r="9" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="46"/>
+    </row>
+    <row r="10" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+    </row>
+    <row r="11" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="23">
+        <v>40902</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+    </row>
+    <row r="12" spans="2:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+    </row>
+    <row r="13" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+    </row>
+    <row r="14" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="23">
+        <v>40903</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+    </row>
+    <row r="15" spans="2:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+    </row>
+    <row r="16" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+    </row>
+    <row r="17" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="23">
+        <v>40904</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+    </row>
+    <row r="18" spans="2:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+    </row>
+    <row r="19" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+    </row>
+    <row r="20" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="23">
+        <v>40905</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+    </row>
+    <row r="21" spans="2:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
+    </row>
+    <row r="22" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+    </row>
+    <row r="23" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="23">
+        <v>40906</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
+    </row>
+    <row r="24" spans="2:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
+    </row>
+    <row r="25" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
+    </row>
+    <row r="26" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="23">
+        <v>40907</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41"/>
+    </row>
+    <row r="27" spans="2:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
+    </row>
+    <row r="28" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="41"/>
+    </row>
+    <row r="29" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="23">
+        <v>40908</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="41"/>
+    </row>
+    <row r="30" spans="2:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="41"/>
+    </row>
+  </sheetData>
+  <mergeCells count="31">
+    <mergeCell ref="E30:H30"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:H4"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="B1:J30"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I17" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="1.140625" customWidth="1"/>
+    <col min="2" max="3" width="9" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" customWidth="1"/>
+    <col min="5" max="7" width="10.85546875" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" customWidth="1"/>
+    <col min="9" max="256" width="10.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+    </row>
+    <row r="2" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+    </row>
+    <row r="3" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="48"/>
+      <c r="D3" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="8"/>
+    </row>
+    <row r="4" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="48"/>
+      <c r="D4" s="49" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="8"/>
+    </row>
+    <row r="5" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="43"/>
+      <c r="D5" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+    </row>
+    <row r="6" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="42"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C7" s="10"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C8" s="10"/>
+    </row>
+    <row r="9" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="46"/>
+    </row>
+    <row r="10" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+    </row>
+    <row r="11" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="23">
+        <v>40902</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+    </row>
+    <row r="12" spans="2:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+    </row>
+    <row r="13" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+    </row>
+    <row r="14" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="23">
+        <v>40903</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+    </row>
+    <row r="15" spans="2:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+    </row>
+    <row r="16" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+    </row>
+    <row r="17" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="23">
+        <v>40904</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+    </row>
+    <row r="18" spans="2:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+    </row>
+    <row r="19" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+    </row>
+    <row r="20" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="23">
+        <v>40905</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+    </row>
+    <row r="21" spans="2:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
+    </row>
+    <row r="22" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+    </row>
+    <row r="23" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="23">
+        <v>40906</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
+    </row>
+    <row r="24" spans="2:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
+    </row>
+    <row r="25" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
+    </row>
+    <row r="26" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="23">
+        <v>40907</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41"/>
+    </row>
+    <row r="27" spans="2:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
+    </row>
+    <row r="28" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="41"/>
+    </row>
+    <row r="29" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="23">
+        <v>40908</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="41"/>
+    </row>
+    <row r="30" spans="2:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="41"/>
+    </row>
+  </sheetData>
+  <mergeCells count="31">
+    <mergeCell ref="E30:H30"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:H4"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6869C66F-4D4B-4257-9E63-29A5D2167D24}">
+  <dimension ref="B1:J30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="1.140625" customWidth="1"/>
+    <col min="2" max="3" width="9" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" customWidth="1"/>
+    <col min="5" max="7" width="10.85546875" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" customWidth="1"/>
+    <col min="9" max="256" width="10.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+    </row>
+    <row r="2" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+    </row>
+    <row r="3" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="48"/>
+      <c r="D3" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="8"/>
+    </row>
+    <row r="4" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="48"/>
+      <c r="D4" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="8"/>
+    </row>
+    <row r="5" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="43"/>
+      <c r="D5" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+    </row>
+    <row r="6" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="42"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C7" s="10"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C8" s="10"/>
+    </row>
+    <row r="9" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="46"/>
+    </row>
+    <row r="10" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+    </row>
+    <row r="11" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="23">
+        <v>44238</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+    </row>
+    <row r="12" spans="2:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="21">
+        <v>2</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+    </row>
+    <row r="13" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+    </row>
+    <row r="14" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="23">
+        <v>40903</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+    </row>
+    <row r="15" spans="2:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+    </row>
+    <row r="16" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+    </row>
+    <row r="17" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="23">
+        <v>44297</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+    </row>
+    <row r="18" spans="2:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="21">
+        <v>3</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+    </row>
+    <row r="19" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+    </row>
+    <row r="20" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="23">
+        <v>40905</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+    </row>
+    <row r="21" spans="2:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
+    </row>
+    <row r="22" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+    </row>
+    <row r="23" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="23">
+        <v>40906</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
+    </row>
+    <row r="24" spans="2:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
+    </row>
+    <row r="25" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
+    </row>
+    <row r="26" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="23">
+        <v>40907</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41"/>
+    </row>
+    <row r="27" spans="2:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
+    </row>
+    <row r="28" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="41"/>
+    </row>
+    <row r="29" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="23">
+        <v>40908</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="41"/>
+    </row>
+    <row r="30" spans="2:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="31">
@@ -2381,1411 +3789,6 @@
     <mergeCell ref="E28:H28"/>
     <mergeCell ref="E29:H29"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="B1:J30"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:H4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="1.140625" customWidth="1"/>
-    <col min="2" max="3" width="9" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" customWidth="1"/>
-    <col min="5" max="7" width="10.85546875" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" customWidth="1"/>
-    <col min="9" max="256" width="10.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B1" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-    </row>
-    <row r="2" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-    </row>
-    <row r="3" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="8"/>
-    </row>
-    <row r="4" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="42"/>
-      <c r="D4" s="44" t="s">
-        <v>53</v>
-      </c>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="8"/>
-    </row>
-    <row r="5" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="47" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-    </row>
-    <row r="6" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="47"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C7" s="10"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C8" s="10"/>
-    </row>
-    <row r="9" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="49" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="51"/>
-    </row>
-    <row r="10" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
-    </row>
-    <row r="11" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="23">
-        <v>40902</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="43" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-    </row>
-    <row r="12" spans="2:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-    </row>
-    <row r="13" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
-    </row>
-    <row r="14" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="23">
-        <v>40903</v>
-      </c>
-      <c r="D14" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
-    </row>
-    <row r="15" spans="2:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
-    </row>
-    <row r="16" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
-    </row>
-    <row r="17" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="23">
-        <v>40904</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43"/>
-    </row>
-    <row r="18" spans="2:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="43"/>
-    </row>
-    <row r="19" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="43"/>
-    </row>
-    <row r="20" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="23">
-        <v>40905</v>
-      </c>
-      <c r="D20" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="43"/>
-    </row>
-    <row r="21" spans="2:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="43"/>
-    </row>
-    <row r="22" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="D22" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="43"/>
-    </row>
-    <row r="23" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="23">
-        <v>40906</v>
-      </c>
-      <c r="D23" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="E23" s="43"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="43"/>
-      <c r="H23" s="43"/>
-    </row>
-    <row r="24" spans="2:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D24" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24" s="43"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="43"/>
-      <c r="H24" s="43"/>
-    </row>
-    <row r="25" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D25" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25" s="43"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="43"/>
-      <c r="H25" s="43"/>
-    </row>
-    <row r="26" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="23">
-        <v>40907</v>
-      </c>
-      <c r="D26" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="E26" s="43"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="43"/>
-      <c r="H26" s="43"/>
-    </row>
-    <row r="27" spans="2:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D27" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E27" s="43"/>
-      <c r="F27" s="43"/>
-      <c r="G27" s="43"/>
-      <c r="H27" s="43"/>
-    </row>
-    <row r="28" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="D28" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="E28" s="43"/>
-      <c r="F28" s="43"/>
-      <c r="G28" s="43"/>
-      <c r="H28" s="43"/>
-    </row>
-    <row r="29" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" s="23">
-        <v>40908</v>
-      </c>
-      <c r="D29" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="E29" s="43"/>
-      <c r="F29" s="43"/>
-      <c r="G29" s="43"/>
-      <c r="H29" s="43"/>
-    </row>
-    <row r="30" spans="2:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C30" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D30" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E30" s="43"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="43"/>
-      <c r="H30" s="43"/>
-    </row>
-  </sheetData>
-  <mergeCells count="31">
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:H4"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="E30:H30"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="E29:H29"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="B1:J30"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I17" sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="1.140625" customWidth="1"/>
-    <col min="2" max="3" width="9" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" customWidth="1"/>
-    <col min="5" max="7" width="10.85546875" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" customWidth="1"/>
-    <col min="9" max="256" width="10.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B1" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-    </row>
-    <row r="2" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-    </row>
-    <row r="3" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="8"/>
-    </row>
-    <row r="4" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="42"/>
-      <c r="D4" s="44" t="s">
-        <v>54</v>
-      </c>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="8"/>
-    </row>
-    <row r="5" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="47" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-    </row>
-    <row r="6" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="47"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C7" s="10"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C8" s="10"/>
-    </row>
-    <row r="9" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="49" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="51"/>
-    </row>
-    <row r="10" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
-    </row>
-    <row r="11" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="23">
-        <v>40902</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="43" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-    </row>
-    <row r="12" spans="2:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-    </row>
-    <row r="13" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
-    </row>
-    <row r="14" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="23">
-        <v>40903</v>
-      </c>
-      <c r="D14" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
-    </row>
-    <row r="15" spans="2:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
-    </row>
-    <row r="16" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
-    </row>
-    <row r="17" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="23">
-        <v>40904</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43"/>
-    </row>
-    <row r="18" spans="2:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="43"/>
-    </row>
-    <row r="19" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="43"/>
-    </row>
-    <row r="20" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="23">
-        <v>40905</v>
-      </c>
-      <c r="D20" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="43"/>
-    </row>
-    <row r="21" spans="2:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="43"/>
-    </row>
-    <row r="22" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="D22" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="43"/>
-    </row>
-    <row r="23" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="23">
-        <v>40906</v>
-      </c>
-      <c r="D23" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="E23" s="43"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="43"/>
-      <c r="H23" s="43"/>
-    </row>
-    <row r="24" spans="2:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D24" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24" s="43"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="43"/>
-      <c r="H24" s="43"/>
-    </row>
-    <row r="25" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D25" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25" s="43"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="43"/>
-      <c r="H25" s="43"/>
-    </row>
-    <row r="26" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="23">
-        <v>40907</v>
-      </c>
-      <c r="D26" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="E26" s="43"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="43"/>
-      <c r="H26" s="43"/>
-    </row>
-    <row r="27" spans="2:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D27" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E27" s="43"/>
-      <c r="F27" s="43"/>
-      <c r="G27" s="43"/>
-      <c r="H27" s="43"/>
-    </row>
-    <row r="28" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="D28" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="E28" s="43"/>
-      <c r="F28" s="43"/>
-      <c r="G28" s="43"/>
-      <c r="H28" s="43"/>
-    </row>
-    <row r="29" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" s="23">
-        <v>40908</v>
-      </c>
-      <c r="D29" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="E29" s="43"/>
-      <c r="F29" s="43"/>
-      <c r="G29" s="43"/>
-      <c r="H29" s="43"/>
-    </row>
-    <row r="30" spans="2:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C30" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D30" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E30" s="43"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="43"/>
-      <c r="H30" s="43"/>
-    </row>
-  </sheetData>
-  <mergeCells count="31">
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:H4"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="E30:H30"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="E29:H29"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6869C66F-4D4B-4257-9E63-29A5D2167D24}">
-  <dimension ref="B1:J30"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="1.140625" customWidth="1"/>
-    <col min="2" max="3" width="9" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" customWidth="1"/>
-    <col min="5" max="7" width="10.85546875" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" customWidth="1"/>
-    <col min="9" max="256" width="10.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B1" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-    </row>
-    <row r="2" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-    </row>
-    <row r="3" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="8"/>
-    </row>
-    <row r="4" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="42"/>
-      <c r="D4" s="44" t="s">
-        <v>54</v>
-      </c>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="8"/>
-    </row>
-    <row r="5" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="47" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-    </row>
-    <row r="6" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="47"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C7" s="10"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C8" s="10"/>
-    </row>
-    <row r="9" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="49" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="51"/>
-    </row>
-    <row r="10" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="43" t="s">
-        <v>55</v>
-      </c>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
-    </row>
-    <row r="11" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="23">
-        <v>44238</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-    </row>
-    <row r="12" spans="2:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="21">
-        <v>2</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-    </row>
-    <row r="13" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
-    </row>
-    <row r="14" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="23">
-        <v>40903</v>
-      </c>
-      <c r="D14" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
-    </row>
-    <row r="15" spans="2:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
-    </row>
-    <row r="16" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" s="43" t="s">
-        <v>56</v>
-      </c>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
-    </row>
-    <row r="17" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="23">
-        <v>44297</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43"/>
-    </row>
-    <row r="18" spans="2:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="21">
-        <v>3</v>
-      </c>
-      <c r="D18" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="43"/>
-    </row>
-    <row r="19" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="43"/>
-    </row>
-    <row r="20" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="23">
-        <v>40905</v>
-      </c>
-      <c r="D20" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="43"/>
-    </row>
-    <row r="21" spans="2:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="43"/>
-    </row>
-    <row r="22" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="D22" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="43"/>
-    </row>
-    <row r="23" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="23">
-        <v>40906</v>
-      </c>
-      <c r="D23" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="E23" s="43"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="43"/>
-      <c r="H23" s="43"/>
-    </row>
-    <row r="24" spans="2:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D24" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24" s="43"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="43"/>
-      <c r="H24" s="43"/>
-    </row>
-    <row r="25" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D25" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25" s="43"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="43"/>
-      <c r="H25" s="43"/>
-    </row>
-    <row r="26" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="23">
-        <v>40907</v>
-      </c>
-      <c r="D26" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="E26" s="43"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="43"/>
-      <c r="H26" s="43"/>
-    </row>
-    <row r="27" spans="2:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D27" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E27" s="43"/>
-      <c r="F27" s="43"/>
-      <c r="G27" s="43"/>
-      <c r="H27" s="43"/>
-    </row>
-    <row r="28" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="D28" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="E28" s="43"/>
-      <c r="F28" s="43"/>
-      <c r="G28" s="43"/>
-      <c r="H28" s="43"/>
-    </row>
-    <row r="29" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" s="23">
-        <v>40908</v>
-      </c>
-      <c r="D29" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="E29" s="43"/>
-      <c r="F29" s="43"/>
-      <c r="G29" s="43"/>
-      <c r="H29" s="43"/>
-    </row>
-    <row r="30" spans="2:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C30" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D30" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E30" s="43"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="43"/>
-      <c r="H30" s="43"/>
-    </row>
-  </sheetData>
-  <mergeCells count="31">
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="E29:H29"/>
-    <mergeCell ref="E30:H30"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:H4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:H5"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>